--- a/biology/Zoologie/Chalcoscirtus_infimus/Chalcoscirtus_infimus.xlsx
+++ b/biology/Zoologie/Chalcoscirtus_infimus/Chalcoscirtus_infimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcoscirtus infimus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcoscirtus infimus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Afrique du Nord, au Moyen-Orient et en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Afrique du Nord, au Moyen-Orient et en Asie centrale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 3 mm et la femelle syntype 3 mm[2].
-Les mâles mesurent de 2,1 à 2,9 mm et les femelles de 2,5 à 3,3 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 3 mm et la femelle syntype 3 mm.
+Les mâles mesurent de 2,1 à 2,9 mm et les femelles de 2,5 à 3,3 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Callietherus infimus par Simon en 1868. Elle est placée dans le genre Calliethera par Simon en 1876[4] puis dans le genre Chalcoscirtus par Bertkau en 1880[5].
-Heliophanus atratus[6] et Chalcoscirtus insularis[7] ont été placées en synonymie par Wunderlich en 1980[8].
-Euophrys thorelli asiatica[9] et Chalcoscirtus pauper[10] ont été placées en synonymie par Logunov et Marusik en 1999[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Callietherus infimus par Simon en 1868. Elle est placée dans le genre Calliethera par Simon en 1876 puis dans le genre Chalcoscirtus par Bertkau en 1880.
+Heliophanus atratus et Chalcoscirtus insularis ont été placées en synonymie par Wunderlich en 1980.
+Euophrys thorelli asiatica et Chalcoscirtus pauper ont été placées en synonymie par Logunov et Marusik en 1999.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1868 : « Monographie des espèces européennes de la famille des attides (Attidae Sundewall. - Saltigradae Latreille). » Annales de la Société Entomologique de France, sér. 4, vol. 8, p. 11-72 &amp; 529-726 (texte intégral) &amp; (texte intégral).</t>
         </is>
